--- a/xxxxx005_RPC/409_RPC_A1_Port_Mapper_Protocol_Specification.xlsx
+++ b/xxxxx005_RPC/409_RPC_A1_Port_Mapper_Protocol_Specification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00807D-6958-40E0-94C5-078CD2151473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086CC37-2FF7-4E82-A9A8-DC08D0EE4226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="プログラム番号一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">プログラム番号一覧!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">プログラム番号一覧!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>プログラム番号</t>
     <rPh sb="5" eb="7">
@@ -157,24 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>When a program first becomes available on a machine, it registers itself with the port mapper program on the same machine. </t>
-  </si>
-  <si>
-    <t>This procedure does no work. </t>
-  </si>
-  <si>
-    <t>When a program becomes unavailable, it should unregister itself with the port mapper program on the same machine.</t>
-  </si>
-  <si>
-    <t> this procedure returns the port number on which the program is awaiting call requests. </t>
-  </si>
-  <si>
-    <t>This procedure enumerates all entries in the port mapper's database. </t>
-  </si>
-  <si>
-    <t>This procedure allows a caller to call another remote procedure on the same machine without knowing the remote procedure's port number.</t>
-  </si>
-  <si>
     <t>この手続きは何の役にも立ちません。</t>
   </si>
   <si>
@@ -205,6 +187,46 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"RPC message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takes nothing, returns nothing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registers the tuple  [prog, vers, prot, port].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un-registers pair [prog, vers].  prot and port are ignored.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This procedure enumerates all entries in the port mapper's database. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>returns the port number where the pair [prog, vers] is registered.  It may lie!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Calls the procedure on the local machine.  If it is not registered, this procedure is quite; ie it does not return error information!!!	This procedure only is supported on rpc/udp and calls via rpc/udp. </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -212,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +256,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,9 +694,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -666,12 +708,12 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.625" style="10" customWidth="1"/>
     <col min="6" max="6" width="2.625" customWidth="1"/>
-    <col min="7" max="7" width="32.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="47.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -697,75 +739,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
@@ -774,86 +800,110 @@
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="G11" s="13"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xxxxx005_RPC/409_RPC_A1_Port_Mapper_Protocol_Specification.xlsx
+++ b/xxxxx005_RPC/409_RPC_A1_Port_Mapper_Protocol_Specification.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086CC37-2FF7-4E82-A9A8-DC08D0EE4226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F3FD85-B8AB-4964-8845-463C0E7753CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム番号一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">プログラム番号一覧!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">プログラム番号一覧!$C$2:$Q$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>プログラム番号</t>
     <rPh sb="5" eb="7">
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PMAPPROC_NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,27 +125,11 @@
     <t>PMAPPROC_CALLIT</t>
   </si>
   <si>
-    <t>call_args</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mapping</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>unsigned int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pmaplist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>call_result</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -227,6 +207,50 @@
   </si>
   <si>
     <t xml:space="preserve">Calls the procedure on the local machine.  If it is not registered, this procedure is quite; ie it does not return error information!!!	This procedure only is supported on rpc/udp and calls via rpc/udp. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapping 構造体</t>
+    <rPh sb="8" eb="11">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pmaplist 構造体の配列</t>
+    <rPh sb="9" eb="12">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|</t>
+    <rPh sb="8" eb="11">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>call_args 構造体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>call_result 構造体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +400,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,214 +736,493 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="2.625" customWidth="1"/>
-    <col min="7" max="7" width="47.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" customWidth="1"/>
+    <col min="18" max="18" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="20">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="20">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="13" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2">
         <v>2</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="20">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="O14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="R14" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:I4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
